--- a/biology/Botanique/Zingiberaceae/Zingiberaceae.xlsx
+++ b/biology/Botanique/Zingiberaceae/Zingiberaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Zingiberaceae (Zingibéracées) sont une famille de plantes à fleurs (angiosperme) monocotylédones regroupant environ 1600 espèces réparties en une cinquantaine de genres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Zingiberaceae (Zingibéracées) sont une famille de plantes à fleurs (angiosperme) monocotylédones regroupant environ 1600 espèces réparties en une cinquantaine de genres.
 Ce sont des plantes herbacées pérennes, productrices d'huiles essentielles, des régions tropicales.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Zingiber dérivé du sanskrit srngam, (corne, trompe), et vera, (corps, racine) – racine en forme de trompe –  qui fut transposé en grec ζιγγίβερης / ziggiberis puis en latin zingiberi et gingiber, devenant « gingembre » en français (« ginger » en anglais). Nom qui se réfère à l'épice provenant d'Inde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Zingiber dérivé du sanskrit srngam, (corne, trompe), et vera, (corps, racine) – racine en forme de trompe –  qui fut transposé en grec ζιγγίβερης / ziggiberis puis en latin zingiberi et gingiber, devenant « gingembre » en français (« ginger » en anglais). Nom qui se réfère à l'épice provenant d'Inde.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Alpinia zerumbet.
@@ -587,12 +603,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arbre phylogénétique de la famille
-Subdivisions
-Sous-famille Siphonochiloideae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zingiberaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Subdivisions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-famille Siphonochiloideae
 Tribu Siphonochileae
 Siphonochilus
 Sous-famille Tamijioideae
